--- a/legendre_out/DATA/a1/a1IntegrandDataPoints6.000000.xlsx
+++ b/legendre_out/DATA/a1/a1IntegrandDataPoints6.000000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.424536350759639</v>
+        <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>1.415264206151435e-06</v>
+        <v>1.688815632779452e-06</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.42877843536789</v>
+        <v>3.43865949305135</v>
       </c>
       <c r="C3" t="n">
-        <v>1.277533643269058e-06</v>
+        <v>1.544489967561539e-06</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.430466699343294</v>
+        <v>3.440287767951486</v>
       </c>
       <c r="C4" t="n">
-        <v>1.267155477477569e-06</v>
+        <v>1.436718749017205e-06</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.433920356105163</v>
+        <v>3.443801413788623</v>
       </c>
       <c r="C5" t="n">
-        <v>1.137394052781745e-06</v>
+        <v>1.346264106253425e-06</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.435737168099</v>
+        <v>3.445601086046668</v>
       </c>
       <c r="C6" t="n">
-        <v>1.153571765540194e-06</v>
+        <v>1.310815759996157e-06</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.436542735681173</v>
+        <v>3.446372374157259</v>
       </c>
       <c r="C7" t="n">
-        <v>1.155834998157357e-06</v>
+        <v>1.276460500349834e-06</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.440861949100481</v>
+        <v>3.450743006783942</v>
       </c>
       <c r="C8" t="n">
-        <v>1.07370313033544e-06</v>
+        <v>1.237663937158416e-06</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.444324175730245</v>
+        <v>3.454170953942123</v>
       </c>
       <c r="C9" t="n">
-        <v>9.331366364972153e-07</v>
+        <v>1.056583894386424e-06</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.445018335029777</v>
+        <v>3.454856543373759</v>
       </c>
       <c r="C10" t="n">
-        <v>8.3524016255375e-07</v>
+        <v>8.992372609046816e-07</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.44940610739225</v>
+        <v>3.459227176000442</v>
       </c>
       <c r="C11" t="n">
-        <v>5.433832419908025e-07</v>
+        <v>6.199429189935983e-07</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.453639622132605</v>
+        <v>3.463512109948169</v>
       </c>
       <c r="C12" t="n">
-        <v>3.20624700781496e-07</v>
+        <v>3.744141649998856e-07</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,2287 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.45806167396666</v>
+        <v>3.467882742574851</v>
       </c>
       <c r="C13" t="n">
-        <v>2.640222693223879e-07</v>
+        <v>2.827699614886127e-07</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3.686414373908955</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.437762555761083e-06</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3.687271360698501</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.946699988624814e-06</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3.689071032956547</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.831514494463989e-06</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3.689928019746092</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.854925934731073e-06</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3.690699307856684</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.837133347323507e-06</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3.691641993325183</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.846989026388432e-06</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3.692498980114729</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.000090603446463e-06</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3.693270268225319</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.719002542496496e-06</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3.694127255014865</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.32382201286151e-06</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.695841228593956</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.07907847066568e-06</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3.697555202173048</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4.317228011656534e-06</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3.699354874431093</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3.936867229239216e-06</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3.701068848010184</v>
+      </c>
+      <c r="C26" t="n">
+        <v>3.686709346070887e-06</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.70286852026823</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3.744361940155589e-06</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.703468411020912</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3.787168841587638e-06</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3.704496795168366</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3.639199694255277e-06</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.706125070068503</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.441875457649259e-06</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3.707839043647593</v>
+      </c>
+      <c r="C31" t="n">
+        <v>3.206476045672052e-06</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3.709638715905639</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3.046996235826921e-06</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3.71135268948473</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.833650898694648e-06</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3.713066663063821</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.767865929723995e-06</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3.714609239285003</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.476577781148943e-06</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3.716494610222004</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.118085272051837e-06</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3.718122885122139</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.792836712664816e-06</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3.719836858701231</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.499579796606059e-06</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3.720693845490776</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.702832783480035e-06</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3.721636530959276</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.266442240558417e-06</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3.723350504538367</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.305475847120782e-06</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3.725064478117458</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.244294920581793e-06</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3.729178014707276</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.09837783662521e-06</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3.73337724997605</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.030036342631852e-06</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3.737747882602732</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.010477816856538e-06</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3.754973317072596</v>
+      </c>
+      <c r="C46" t="n">
+        <v>8.07101234579327e-07</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3.772113052863507</v>
+      </c>
+      <c r="C47" t="n">
+        <v>8.134694924275698e-07</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3.789167089975462</v>
+      </c>
+      <c r="C48" t="n">
+        <v>8.598143932720581e-07</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3.797908355228826</v>
+      </c>
+      <c r="C49" t="n">
+        <v>8.518734198063824e-07</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3.806478223124282</v>
+      </c>
+      <c r="C50" t="n">
+        <v>8.48769704257217e-07</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3.814876693661827</v>
+      </c>
+      <c r="C51" t="n">
+        <v>7.104964901346515e-07</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3.823360862878328</v>
+      </c>
+      <c r="C52" t="n">
+        <v>7.132964444716028e-07</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3.82773149550501</v>
+      </c>
+      <c r="C53" t="n">
+        <v>4.451729363481758e-07</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3.832102128131692</v>
+      </c>
+      <c r="C54" t="n">
+        <v>4.259854886023287e-07</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>3.840586297348192</v>
+      </c>
+      <c r="C55" t="n">
+        <v>4.322420544447949e-07</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>3.847442191664556</v>
+      </c>
+      <c r="C56" t="n">
+        <v>5.875324346426698e-07</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>3.854383784659876</v>
+      </c>
+      <c r="C57" t="n">
+        <v>8.083065527899021e-07</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3.856183456917921</v>
+      </c>
+      <c r="C58" t="n">
+        <v>9.171228490371088e-07</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3.857811731818057</v>
+      </c>
+      <c r="C59" t="n">
+        <v>8.887277351392882e-07</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>3.859611404076103</v>
+      </c>
+      <c r="C60" t="n">
+        <v>9.625219799164847e-07</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>3.86201096708683</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.079441612641322e-06</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3.866295901034558</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1.154846560211224e-06</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3.875037166287922</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1.233822671065164e-06</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3.876751139867013</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.444228776726093e-06</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>3.879236401556695</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.450439324548896e-06</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3.883521335504422</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.314345144286361e-06</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3.887891968131104</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1.16133399020288e-06</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3.891491312647195</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.295922779093679e-06</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3.896376137347605</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1.062147237843319e-06</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3.900746769974288</v>
+      </c>
+      <c r="C70" t="n">
+        <v>8.243642808680251e-07</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>3.908973843153924</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1.059581543304309e-06</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3.917886505765197</v>
+      </c>
+      <c r="C72" t="n">
+        <v>3.553895948450149e-07</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>3.926370674981698</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2.725238648926273e-07</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3.934854844198199</v>
+      </c>
+      <c r="C74" t="n">
+        <v>3.543366387331031e-07</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3.943510410772608</v>
+      </c>
+      <c r="C75" t="n">
+        <v>8.784744642235664e-07</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>3.952251676025972</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2.510903310799018e-06</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3.960564447884564</v>
+      </c>
+      <c r="C77" t="n">
+        <v>7.212948476982424e-06</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3.969305713137928</v>
+      </c>
+      <c r="C78" t="n">
+        <v>7.695522735025428e-06</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>3.977618484996519</v>
+      </c>
+      <c r="C79" t="n">
+        <v>5.925833159692819e-06</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>3.982160514981111</v>
+      </c>
+      <c r="C80" t="n">
+        <v>3.075618495467133e-06</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>3.986274051570929</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2.743291603530761e-06</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>3.994843919466384</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3.187262494863063e-06</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>4.012069353936249</v>
+      </c>
+      <c r="C83" t="n">
+        <v>3.304147538996226e-06</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>4.020724920510658</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2.250355962196949e-06</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>4.02903769236925</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1.559830581168965e-06</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>4.046263126839114</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1.283366804153402e-06</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>4.063402862630025</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1.368516969146766e-06</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>4.080542598420934</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2.148401916843146e-06</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>4.084998929726572</v>
+      </c>
+      <c r="C89" t="n">
+        <v>4.40059628269601e-06</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>4.08816978084789</v>
+      </c>
+      <c r="C90" t="n">
+        <v>4.463322947606725e-06</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>4.097682334211846</v>
+      </c>
+      <c r="C91" t="n">
+        <v>4.136530907827505e-06</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>4.101967268159573</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3.307277027584164e-06</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>4.106423599465209</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2.308710506116291e-06</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>4.114907768681709</v>
+      </c>
+      <c r="C94" t="n">
+        <v>3.601918496996923e-06</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>4.123306239219255</v>
+      </c>
+      <c r="C95" t="n">
+        <v>7.395065278367288e-06</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>4.131961805793665</v>
+      </c>
+      <c r="C96" t="n">
+        <v>6.38624600915734e-06</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>4.133847176730665</v>
+      </c>
+      <c r="C97" t="n">
+        <v>4.203721471645465e-06</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>4.136503835778257</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2.664618642497896e-06</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>4.140617372368075</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.302141466908235e-06</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>4.149015842905621</v>
+      </c>
+      <c r="C100" t="n">
+        <v>9.28388095749827e-07</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>4.166241277375486</v>
+      </c>
+      <c r="C101" t="n">
+        <v>9.504546625236723e-07</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>4.180210162045077</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1.005015165885115e-06</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>4.200435050278351</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1.034115381562836e-06</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>4.209004918173807</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1.075539098700867e-06</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>4.21774618342717</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1.066506768925478e-06</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>4.226230352643671</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1.059267865882964e-06</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>4.231543670738853</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1.101151326335311e-06</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>4.234971617897036</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1.115214063447492e-06</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>4.24071342938699</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.112816943747026e-06</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>4.249111899924536</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1.107587623394733e-06</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>4.2521970523669</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.146243114589083e-06</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>4.257767466498946</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.090316413935856e-06</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>4.262138099125628</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.128329875884566e-06</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>4.264537662136355</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.123914874513087e-06</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>4.267280019862901</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1.146975007968327e-06</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>4.269079692120946</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.214390530094696e-06</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>4.271479255131674</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.14131710836388e-06</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>4.273021831352856</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1.158904445446924e-06</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>4.281677397927266</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.154337267312721e-06</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>4.286305126590811</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1.223589246079678e-06</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>4.29024726582272</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1.171603622452189e-06</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>4.298731435039221</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1.18688429185626e-06</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>4.303359163702766</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1.279296019642745e-06</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>4.307472700292585</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1.354951418704744e-06</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>4.309957961982268</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1.527488758249923e-06</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>4.310129359340176</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1.515367211041531e-06</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4.311757634240313</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1.86540225415201e-06</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>4.31604256818804</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2.939490872298636e-06</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>4.318613528556677</v>
+      </c>
+      <c r="C129" t="n">
+        <v>3.996662760266589e-06</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>4.320584598172632</v>
+      </c>
+      <c r="C130" t="n">
+        <v>3.96038030195853e-06</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4.322898462504404</v>
+      </c>
+      <c r="C131" t="n">
+        <v>3.727062701253956e-06</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>4.325555121551995</v>
+      </c>
+      <c r="C132" t="n">
+        <v>3.621684613939328e-06</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>4.327954684562723</v>
+      </c>
+      <c r="C133" t="n">
+        <v>3.572110293532687e-06</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>4.330782740968223</v>
+      </c>
+      <c r="C134" t="n">
+        <v>3.347166799091429e-06</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>4.33318230397895</v>
+      </c>
+      <c r="C135" t="n">
+        <v>3.002969101056641e-06</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>4.337638635284587</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2.227222391282327e-06</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4.341752171874406</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1.592244925421328e-06</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>4.350407738448815</v>
+      </c>
+      <c r="C138" t="n">
+        <v>3.083251429145718e-06</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>4.354692672396543</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2.978745305898244e-06</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>4.358634811628452</v>
+      </c>
+      <c r="C140" t="n">
+        <v>3.04261312452474e-06</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>4.366947583487043</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2.702978876510875e-06</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>4.371918106866407</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2.70000996352317e-06</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>4.375088957987725</v>
+      </c>
+      <c r="C143" t="n">
+        <v>4.77835151020088e-06</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>4.377745617035317</v>
+      </c>
+      <c r="C144" t="n">
+        <v>6.221147027851955e-06</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>4.379545289293363</v>
+      </c>
+      <c r="C145" t="n">
+        <v>6.004662098385282e-06</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>4.380487974761863</v>
+      </c>
+      <c r="C146" t="n">
+        <v>6.063480810514259e-06</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>4.380830769477681</v>
+      </c>
+      <c r="C147" t="n">
+        <v>5.919331855520919e-06</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>4.381087865514544</v>
+      </c>
+      <c r="C148" t="n">
+        <v>5.957136906326911e-06</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>4.382973236451544</v>
+      </c>
+      <c r="C149" t="n">
+        <v>9.925871291659554e-06</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>4.384687210030635</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1.0513083137866e-05</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>4.386401183609727</v>
+      </c>
+      <c r="C151" t="n">
+        <v>9.838873336176836e-06</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>4.388029458509863</v>
+      </c>
+      <c r="C152" t="n">
+        <v>9.448496009122648e-06</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>4.389057842657317</v>
+      </c>
+      <c r="C153" t="n">
+        <v>9.446485050094617e-06</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>4.389743432088954</v>
+      </c>
+      <c r="C154" t="n">
+        <v>8.920884827793874e-06</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>4.392314392457591</v>
+      </c>
+      <c r="C155" t="n">
+        <v>8.349420201030009e-06</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>4.396599326405318</v>
+      </c>
+      <c r="C156" t="n">
+        <v>6.780488015468549e-06</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>4.400884260353045</v>
+      </c>
+      <c r="C157" t="n">
+        <v>4.775926819733411e-06</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>4.404912098263909</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2.6936503095394e-06</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>4.406111879769273</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2.836646012792459e-06</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>4.4094541282485</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1.537288233171082e-06</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>4.413824760875183</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1.370158549515124e-06</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>4.41622432388591</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1.431966816442253e-06</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>4.418795284254546</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1.415161651217292e-06</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>4.421623340660047</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1.45433638862508e-06</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>4.423337314239138</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.507724899602927e-06</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>4.424194301028683</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1.517223809892138e-06</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>4.429336221765956</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1.596155873042338e-06</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>4.431392990060865</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1.675029498267849e-06</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>4.440477050030048</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1.633924404234414e-06</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>4.457445388463049</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.838304147066649e-06</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>4.474756521611869</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2.313421519663177e-06</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>4.491896257402779</v>
+      </c>
+      <c r="C172" t="n">
+        <v>3.225746644931989e-06</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>4.500037631903461</v>
+      </c>
+      <c r="C173" t="n">
+        <v>4.597364185378571e-06</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>4.503122784345824</v>
+      </c>
+      <c r="C174" t="n">
+        <v>4.947759496740608e-06</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>4.509121691872643</v>
+      </c>
+      <c r="C175" t="n">
+        <v>6.819916693454332e-06</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>4.517520162410189</v>
+      </c>
+      <c r="C176" t="n">
+        <v>8.799267236066895e-06</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>4.521890795036872</v>
+      </c>
+      <c r="C177" t="n">
+        <v>9.139651996985888e-06</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>4.526175728984599</v>
+      </c>
+      <c r="C178" t="n">
+        <v>9.685364114562474e-06</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>4.530460662932327</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.104748006646043e-05</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>4.534574199522145</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1.482151967557438e-05</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>4.539030530827781</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1.747727844810736e-05</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>4.543486862133419</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2.22455079364995e-05</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>4.545800726465191</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2.552112291788052e-05</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>4.549914263055009</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2.460671277615368e-05</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>4.551628236634101</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2.415468885648379e-05</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>4.553942100965873</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2.356282768556807e-05</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>4.558912624345237</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1.850720776707524e-05</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>4.562940462256101</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1.370312859458243e-05</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>4.56688260148801</v>
+      </c>
+      <c r="C189" t="n">
+        <v>9.601090085379774e-06</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>4.571424631472602</v>
+      </c>
+      <c r="C190" t="n">
+        <v>6.468458609430232e-06</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>4.575623866741375</v>
+      </c>
+      <c r="C191" t="n">
+        <v>4.477797891471624e-06</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>4.580080198047011</v>
+      </c>
+      <c r="C192" t="n">
+        <v>3.360181340954588e-06</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>4.58402233727892</v>
+      </c>
+      <c r="C193" t="n">
+        <v>3.006848149728346e-06</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>4.588478668584557</v>
+      </c>
+      <c r="C194" t="n">
+        <v>2.72447781692603e-06</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>4.588650065942466</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2.712804752028555e-06</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>4.592078013100648</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2.405459375906614e-06</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>4.593277794606012</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2.356743454382065e-06</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>4.593534890642876</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2.327816044939534e-06</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>4.596534344406285</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2.442134550537563e-06</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>4.597819824590603</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2.27755080528542e-06</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>4.601504867785649</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2.939707579992245e-06</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>4.603133142685785</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2.839711174049535e-06</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>4.604932814943831</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2.803808513557799e-06</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>4.606646788522922</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2.782802445543207e-06</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>4.608446460780968</v>
+      </c>
+      <c r="C205" t="n">
+        <v>2.742924098935632e-06</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>4.610160434360059</v>
+      </c>
+      <c r="C206" t="n">
+        <v>2.752126487188208e-06</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>4.611617311902286</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2.733902603996202e-06</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>4.615987944528968</v>
+      </c>
+      <c r="C208" t="n">
+        <v>2.399852793228486e-06</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>4.620529974513559</v>
+      </c>
+      <c r="C209" t="n">
+        <v>2.011320983779335e-06</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>4.622929537524286</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1.90783096814301e-06</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>4.623272332240105</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.983121475941757e-06</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>4.623786524313832</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1.901406465045581e-06</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>4.625586196571877</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1.865132348672902e-06</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>4.628928445051105</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1.836880123881345e-06</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>4.631670802777651</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1.846081301730147e-06</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>4.64049776670997</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1.922811108180909e-06</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>4.649667525358106</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1.886001862305015e-06</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>4.658494489290425</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1.782864356087287e-06</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>4.667921343975426</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1.839564327375792e-06</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>4.671263592454653</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1.92748342501336e-06</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/a1/a1IntegrandDataPoints6.000000.xlsx
+++ b/legendre_out/DATA/a1/a1IntegrandDataPoints6.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>1.688815632779452e-06</v>
+        <v>1.696382170461746e-06</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.43865949305135</v>
       </c>
       <c r="C3" t="n">
-        <v>1.544489967561539e-06</v>
+        <v>1.528444375809271e-06</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.440287767951486</v>
       </c>
       <c r="C4" t="n">
-        <v>1.436718749017205e-06</v>
+        <v>1.448271632226907e-06</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.443801413788623</v>
       </c>
       <c r="C5" t="n">
-        <v>1.346264106253425e-06</v>
+        <v>1.318786406505631e-06</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.445601086046668</v>
       </c>
       <c r="C6" t="n">
-        <v>1.310815759996157e-06</v>
+        <v>1.311304437363231e-06</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.446372374157259</v>
       </c>
       <c r="C7" t="n">
-        <v>1.276460500349834e-06</v>
+        <v>1.296712108230241e-06</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.450743006783942</v>
       </c>
       <c r="C8" t="n">
-        <v>1.237663937158416e-06</v>
+        <v>1.216243315406248e-06</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.454170953942123</v>
       </c>
       <c r="C9" t="n">
-        <v>1.056583894386424e-06</v>
+        <v>1.057810213983392e-06</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.454856543373759</v>
       </c>
       <c r="C10" t="n">
-        <v>8.992372609046816e-07</v>
+        <v>9.259741136372572e-07</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.459227176000442</v>
       </c>
       <c r="C11" t="n">
-        <v>6.199429189935983e-07</v>
+        <v>6.190206734962163e-07</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.463512109948169</v>
       </c>
       <c r="C12" t="n">
-        <v>3.744141649998856e-07</v>
+        <v>3.532917636543288e-07</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C13" t="n">
-        <v>2.827699614886127e-07</v>
+        <v>2.78448524648295e-07</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C14" t="n">
-        <v>1.437762555761083e-06</v>
+        <v>1.424021086612335e-06</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.687271360698501</v>
       </c>
       <c r="C15" t="n">
-        <v>1.946699988624814e-06</v>
+        <v>1.949061587890562e-06</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.689071032956547</v>
       </c>
       <c r="C16" t="n">
-        <v>1.831514494463989e-06</v>
+        <v>1.813130464367753e-06</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.689928019746092</v>
       </c>
       <c r="C17" t="n">
-        <v>1.854925934731073e-06</v>
+        <v>1.867856690096664e-06</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.690699307856684</v>
       </c>
       <c r="C18" t="n">
-        <v>1.837133347323507e-06</v>
+        <v>1.846001847091865e-06</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.691641993325183</v>
       </c>
       <c r="C19" t="n">
-        <v>1.846989026388432e-06</v>
+        <v>1.853162113972399e-06</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.692498980114729</v>
       </c>
       <c r="C20" t="n">
-        <v>2.000090603446463e-06</v>
+        <v>1.995779853146506e-06</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.693270268225319</v>
       </c>
       <c r="C21" t="n">
-        <v>2.719002542496496e-06</v>
+        <v>2.715360766832586e-06</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.694127255014865</v>
       </c>
       <c r="C22" t="n">
-        <v>3.32382201286151e-06</v>
+        <v>3.298201172874653e-06</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.695841228593956</v>
       </c>
       <c r="C23" t="n">
-        <v>4.07907847066568e-06</v>
+        <v>4.108447066022453e-06</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.697555202173048</v>
       </c>
       <c r="C24" t="n">
-        <v>4.317228011656534e-06</v>
+        <v>4.316368516379477e-06</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.699354874431093</v>
       </c>
       <c r="C25" t="n">
-        <v>3.936867229239216e-06</v>
+        <v>3.903800248848501e-06</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.701068848010184</v>
       </c>
       <c r="C26" t="n">
-        <v>3.686709346070887e-06</v>
+        <v>3.828829837022169e-06</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.70286852026823</v>
       </c>
       <c r="C27" t="n">
-        <v>3.744361940155589e-06</v>
+        <v>3.775216897203873e-06</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.703468411020912</v>
       </c>
       <c r="C28" t="n">
-        <v>3.787168841587638e-06</v>
+        <v>3.83482679533463e-06</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.704496795168366</v>
       </c>
       <c r="C29" t="n">
-        <v>3.639199694255277e-06</v>
+        <v>3.625350842305192e-06</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.706125070068503</v>
       </c>
       <c r="C30" t="n">
-        <v>3.441875457649259e-06</v>
+        <v>3.440785128538311e-06</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.707839043647593</v>
       </c>
       <c r="C31" t="n">
-        <v>3.206476045672052e-06</v>
+        <v>3.203538523995064e-06</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.709638715905639</v>
       </c>
       <c r="C32" t="n">
-        <v>3.046996235826921e-06</v>
+        <v>3.085876095995789e-06</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.71135268948473</v>
       </c>
       <c r="C33" t="n">
-        <v>2.833650898694648e-06</v>
+        <v>2.847676220660867e-06</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.713066663063821</v>
       </c>
       <c r="C34" t="n">
-        <v>2.767865929723995e-06</v>
+        <v>2.791217172272473e-06</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.714609239285003</v>
       </c>
       <c r="C35" t="n">
-        <v>2.476577781148943e-06</v>
+        <v>2.425619628874852e-06</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.716494610222004</v>
       </c>
       <c r="C36" t="n">
-        <v>2.118085272051837e-06</v>
+        <v>2.149997474233747e-06</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.718122885122139</v>
       </c>
       <c r="C37" t="n">
-        <v>1.792836712664816e-06</v>
+        <v>1.82728816474538e-06</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.719836858701231</v>
       </c>
       <c r="C38" t="n">
-        <v>1.499579796606059e-06</v>
+        <v>1.501743030568065e-06</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.720693845490776</v>
       </c>
       <c r="C39" t="n">
-        <v>1.702832783480035e-06</v>
+        <v>1.725535421697931e-06</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.721636530959276</v>
       </c>
       <c r="C40" t="n">
-        <v>1.266442240558417e-06</v>
+        <v>1.250561907091821e-06</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.723350504538367</v>
       </c>
       <c r="C41" t="n">
-        <v>1.305475847120782e-06</v>
+        <v>1.309616638974069e-06</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.725064478117458</v>
       </c>
       <c r="C42" t="n">
-        <v>1.244294920581793e-06</v>
+        <v>1.25635808102986e-06</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.729178014707276</v>
       </c>
       <c r="C43" t="n">
-        <v>1.09837783662521e-06</v>
+        <v>1.09637303130652e-06</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.73337724997605</v>
       </c>
       <c r="C44" t="n">
-        <v>1.030036342631852e-06</v>
+        <v>1.034695584130517e-06</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.737747882602732</v>
       </c>
       <c r="C45" t="n">
-        <v>1.010477816856538e-06</v>
+        <v>9.887309991871893e-07</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C46" t="n">
-        <v>8.07101234579327e-07</v>
+        <v>8.13314575847203e-07</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.772113052863507</v>
       </c>
       <c r="C47" t="n">
-        <v>8.134694924275698e-07</v>
+        <v>8.163965203372139e-07</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.789167089975462</v>
       </c>
       <c r="C48" t="n">
-        <v>8.598143932720581e-07</v>
+        <v>8.413150981102143e-07</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.797908355228826</v>
       </c>
       <c r="C49" t="n">
-        <v>8.518734198063824e-07</v>
+        <v>8.662396651620135e-07</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.806478223124282</v>
       </c>
       <c r="C50" t="n">
-        <v>8.48769704257217e-07</v>
+        <v>8.525171317609068e-07</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.814876693661827</v>
       </c>
       <c r="C51" t="n">
-        <v>7.104964901346515e-07</v>
+        <v>7.130136133820065e-07</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.823360862878328</v>
       </c>
       <c r="C52" t="n">
-        <v>7.132964444716028e-07</v>
+        <v>7.555116484985136e-07</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.82773149550501</v>
       </c>
       <c r="C53" t="n">
-        <v>4.451729363481758e-07</v>
+        <v>4.2243683083712e-07</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.832102128131692</v>
       </c>
       <c r="C54" t="n">
-        <v>4.259854886023287e-07</v>
+        <v>4.468096832941871e-07</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.840586297348192</v>
       </c>
       <c r="C55" t="n">
-        <v>4.322420544447949e-07</v>
+        <v>4.53835441100118e-07</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.847442191664556</v>
       </c>
       <c r="C56" t="n">
-        <v>5.875324346426698e-07</v>
+        <v>6.43800723789232e-07</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.854383784659876</v>
       </c>
       <c r="C57" t="n">
-        <v>8.083065527899021e-07</v>
+        <v>7.819273176862146e-07</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.856183456917921</v>
       </c>
       <c r="C58" t="n">
-        <v>9.171228490371088e-07</v>
+        <v>9.131193340980485e-07</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.857811731818057</v>
       </c>
       <c r="C59" t="n">
-        <v>8.887277351392882e-07</v>
+        <v>8.864427039929328e-07</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.859611404076103</v>
       </c>
       <c r="C60" t="n">
-        <v>9.625219799164847e-07</v>
+        <v>9.687711039977966e-07</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.86201096708683</v>
       </c>
       <c r="C61" t="n">
-        <v>1.079441612641322e-06</v>
+        <v>1.080951307453124e-06</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.866295901034558</v>
       </c>
       <c r="C62" t="n">
-        <v>1.154846560211224e-06</v>
+        <v>1.155910540185403e-06</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.875037166287922</v>
       </c>
       <c r="C63" t="n">
-        <v>1.233822671065164e-06</v>
+        <v>1.237346924666055e-06</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.876751139867013</v>
       </c>
       <c r="C64" t="n">
-        <v>1.444228776726093e-06</v>
+        <v>1.450649742284263e-06</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.879236401556695</v>
       </c>
       <c r="C65" t="n">
-        <v>1.450439324548896e-06</v>
+        <v>1.435552769973409e-06</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.883521335504422</v>
       </c>
       <c r="C66" t="n">
-        <v>1.314345144286361e-06</v>
+        <v>1.27239615126395e-06</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.887891968131104</v>
       </c>
       <c r="C67" t="n">
-        <v>1.16133399020288e-06</v>
+        <v>1.228010622819449e-06</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.891491312647195</v>
       </c>
       <c r="C68" t="n">
-        <v>1.295922779093679e-06</v>
+        <v>1.314096648563458e-06</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.896376137347605</v>
       </c>
       <c r="C69" t="n">
-        <v>1.062147237843319e-06</v>
+        <v>1.082931121308393e-06</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.900746769974288</v>
       </c>
       <c r="C70" t="n">
-        <v>8.243642808680251e-07</v>
+        <v>8.256848538033177e-07</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.908973843153924</v>
       </c>
       <c r="C71" t="n">
-        <v>1.059581543304309e-06</v>
+        <v>1.04852223747254e-06</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.917886505765197</v>
       </c>
       <c r="C72" t="n">
-        <v>3.553895948450149e-07</v>
+        <v>3.351601880400661e-07</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.926370674981698</v>
       </c>
       <c r="C73" t="n">
-        <v>2.725238648926273e-07</v>
+        <v>3.161888828057006e-07</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.934854844198199</v>
       </c>
       <c r="C74" t="n">
-        <v>3.543366387331031e-07</v>
+        <v>3.535464607253444e-07</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.943510410772608</v>
       </c>
       <c r="C75" t="n">
-        <v>8.784744642235664e-07</v>
+        <v>8.855257070596915e-07</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.952251676025972</v>
       </c>
       <c r="C76" t="n">
-        <v>2.510903310799018e-06</v>
+        <v>2.510653015056688e-06</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.960564447884564</v>
       </c>
       <c r="C77" t="n">
-        <v>7.212948476982424e-06</v>
+        <v>7.193805197158658e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.969305713137928</v>
       </c>
       <c r="C78" t="n">
-        <v>7.695522735025428e-06</v>
+        <v>7.834060571506036e-06</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.977618484996519</v>
       </c>
       <c r="C79" t="n">
-        <v>5.925833159692819e-06</v>
+        <v>5.854742706498204e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.982160514981111</v>
       </c>
       <c r="C80" t="n">
-        <v>3.075618495467133e-06</v>
+        <v>3.09472813694541e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.986274051570929</v>
       </c>
       <c r="C81" t="n">
-        <v>2.743291603530761e-06</v>
+        <v>2.751042257883081e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.994843919466384</v>
       </c>
       <c r="C82" t="n">
-        <v>3.187262494863063e-06</v>
+        <v>3.185495289403522e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>4.012069353936249</v>
       </c>
       <c r="C83" t="n">
-        <v>3.304147538996226e-06</v>
+        <v>3.306031697227577e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>4.020724920510658</v>
       </c>
       <c r="C84" t="n">
-        <v>2.250355962196949e-06</v>
+        <v>2.260008277172794e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>4.02903769236925</v>
       </c>
       <c r="C85" t="n">
-        <v>1.559830581168965e-06</v>
+        <v>1.552672794061926e-06</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>4.046263126839114</v>
       </c>
       <c r="C86" t="n">
-        <v>1.283366804153402e-06</v>
+        <v>1.272381499969353e-06</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>4.063402862630025</v>
       </c>
       <c r="C87" t="n">
-        <v>1.368516969146766e-06</v>
+        <v>1.369264108558386e-06</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>4.080542598420934</v>
       </c>
       <c r="C88" t="n">
-        <v>2.148401916843146e-06</v>
+        <v>2.148965931643944e-06</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>4.084998929726572</v>
       </c>
       <c r="C89" t="n">
-        <v>4.40059628269601e-06</v>
+        <v>4.40653367271652e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>4.08816978084789</v>
       </c>
       <c r="C90" t="n">
-        <v>4.463322947606725e-06</v>
+        <v>4.455173446622981e-06</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>4.097682334211846</v>
       </c>
       <c r="C91" t="n">
-        <v>4.136530907827505e-06</v>
+        <v>4.162114808504296e-06</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>4.101967268159573</v>
       </c>
       <c r="C92" t="n">
-        <v>3.307277027584164e-06</v>
+        <v>3.314196166764536e-06</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>4.106423599465209</v>
       </c>
       <c r="C93" t="n">
-        <v>2.308710506116291e-06</v>
+        <v>2.326761500324309e-06</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>4.114907768681709</v>
       </c>
       <c r="C94" t="n">
-        <v>3.601918496996923e-06</v>
+        <v>3.573024544102593e-06</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>4.123306239219255</v>
       </c>
       <c r="C95" t="n">
-        <v>7.395065278367288e-06</v>
+        <v>7.428342824612733e-06</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>4.131961805793665</v>
       </c>
       <c r="C96" t="n">
-        <v>6.38624600915734e-06</v>
+        <v>6.394631866916054e-06</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>4.133847176730665</v>
       </c>
       <c r="C97" t="n">
-        <v>4.203721471645465e-06</v>
+        <v>4.216181692834795e-06</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>4.136503835778257</v>
       </c>
       <c r="C98" t="n">
-        <v>2.664618642497896e-06</v>
+        <v>2.671397286498901e-06</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>4.140617372368075</v>
       </c>
       <c r="C99" t="n">
-        <v>1.302141466908235e-06</v>
+        <v>1.294626774284032e-06</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>4.149015842905621</v>
       </c>
       <c r="C100" t="n">
-        <v>9.28388095749827e-07</v>
+        <v>9.306840121223033e-07</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>4.166241277375486</v>
       </c>
       <c r="C101" t="n">
-        <v>9.504546625236723e-07</v>
+        <v>9.488337904386596e-07</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>4.180210162045077</v>
       </c>
       <c r="C102" t="n">
-        <v>1.005015165885115e-06</v>
+        <v>1.001118511368624e-06</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>4.200435050278351</v>
       </c>
       <c r="C103" t="n">
-        <v>1.034115381562836e-06</v>
+        <v>1.029063409964662e-06</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>4.209004918173807</v>
       </c>
       <c r="C104" t="n">
-        <v>1.075539098700867e-06</v>
+        <v>1.080017073170389e-06</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>4.21774618342717</v>
       </c>
       <c r="C105" t="n">
-        <v>1.066506768925478e-06</v>
+        <v>1.068140653826849e-06</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>4.226230352643671</v>
       </c>
       <c r="C106" t="n">
-        <v>1.059267865882964e-06</v>
+        <v>1.064237133533127e-06</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>4.231543670738853</v>
       </c>
       <c r="C107" t="n">
-        <v>1.101151326335311e-06</v>
+        <v>1.09277316133437e-06</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>4.234971617897036</v>
       </c>
       <c r="C108" t="n">
-        <v>1.115214063447492e-06</v>
+        <v>1.1169313269922e-06</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>4.24071342938699</v>
       </c>
       <c r="C109" t="n">
-        <v>1.112816943747026e-06</v>
+        <v>1.104978386653677e-06</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>4.249111899924536</v>
       </c>
       <c r="C110" t="n">
-        <v>1.107587623394733e-06</v>
+        <v>1.107470621684981e-06</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>4.2521970523669</v>
       </c>
       <c r="C111" t="n">
-        <v>1.146243114589083e-06</v>
+        <v>1.14247698064725e-06</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>4.257767466498946</v>
       </c>
       <c r="C112" t="n">
-        <v>1.090316413935856e-06</v>
+        <v>1.088833040967234e-06</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>4.262138099125628</v>
       </c>
       <c r="C113" t="n">
-        <v>1.128329875884566e-06</v>
+        <v>1.124275894671305e-06</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>4.264537662136355</v>
       </c>
       <c r="C114" t="n">
-        <v>1.123914874513087e-06</v>
+        <v>1.120178660883286e-06</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>4.267280019862901</v>
       </c>
       <c r="C115" t="n">
-        <v>1.146975007968327e-06</v>
+        <v>1.155415095780538e-06</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>4.269079692120946</v>
       </c>
       <c r="C116" t="n">
-        <v>1.214390530094696e-06</v>
+        <v>1.219437491799435e-06</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>4.271479255131674</v>
       </c>
       <c r="C117" t="n">
-        <v>1.14131710836388e-06</v>
+        <v>1.146632477189244e-06</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>4.273021831352856</v>
       </c>
       <c r="C118" t="n">
-        <v>1.158904445446924e-06</v>
+        <v>1.162494780116693e-06</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>4.281677397927266</v>
       </c>
       <c r="C119" t="n">
-        <v>1.154337267312721e-06</v>
+        <v>1.158304102288364e-06</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>4.286305126590811</v>
       </c>
       <c r="C120" t="n">
-        <v>1.223589246079678e-06</v>
+        <v>1.221119080910265e-06</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>4.29024726582272</v>
       </c>
       <c r="C121" t="n">
-        <v>1.171603622452189e-06</v>
+        <v>1.169602320038622e-06</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>4.298731435039221</v>
       </c>
       <c r="C122" t="n">
-        <v>1.18688429185626e-06</v>
+        <v>1.189918629190462e-06</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>4.303359163702766</v>
       </c>
       <c r="C123" t="n">
-        <v>1.279296019642745e-06</v>
+        <v>1.283518071305527e-06</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>4.307472700292585</v>
       </c>
       <c r="C124" t="n">
-        <v>1.354951418704744e-06</v>
+        <v>1.357210889358006e-06</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>4.309957961982268</v>
       </c>
       <c r="C125" t="n">
-        <v>1.527488758249923e-06</v>
+        <v>1.534743677229961e-06</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>4.310129359340176</v>
       </c>
       <c r="C126" t="n">
-        <v>1.515367211041531e-06</v>
+        <v>1.514179820200312e-06</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>4.311757634240313</v>
       </c>
       <c r="C127" t="n">
-        <v>1.86540225415201e-06</v>
+        <v>1.868688044624685e-06</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>4.31604256818804</v>
       </c>
       <c r="C128" t="n">
-        <v>2.939490872298636e-06</v>
+        <v>2.961375273759291e-06</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>4.318613528556677</v>
       </c>
       <c r="C129" t="n">
-        <v>3.996662760266589e-06</v>
+        <v>3.995106374546005e-06</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>4.320584598172632</v>
       </c>
       <c r="C130" t="n">
-        <v>3.96038030195853e-06</v>
+        <v>3.957311475847044e-06</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>4.322898462504404</v>
       </c>
       <c r="C131" t="n">
-        <v>3.727062701253956e-06</v>
+        <v>3.743029052331787e-06</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>4.325555121551995</v>
       </c>
       <c r="C132" t="n">
-        <v>3.621684613939328e-06</v>
+        <v>3.654377333171373e-06</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>4.327954684562723</v>
       </c>
       <c r="C133" t="n">
-        <v>3.572110293532687e-06</v>
+        <v>3.562358955463651e-06</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>4.330782740968223</v>
       </c>
       <c r="C134" t="n">
-        <v>3.347166799091429e-06</v>
+        <v>3.358374412994713e-06</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>4.33318230397895</v>
       </c>
       <c r="C135" t="n">
-        <v>3.002969101056641e-06</v>
+        <v>3.00511230985966e-06</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>4.337638635284587</v>
       </c>
       <c r="C136" t="n">
-        <v>2.227222391282327e-06</v>
+        <v>2.242740730532831e-06</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>4.341752171874406</v>
       </c>
       <c r="C137" t="n">
-        <v>1.592244925421328e-06</v>
+        <v>1.594707481913735e-06</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>4.350407738448815</v>
       </c>
       <c r="C138" t="n">
-        <v>3.083251429145718e-06</v>
+        <v>3.08749305857975e-06</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>4.354692672396543</v>
       </c>
       <c r="C139" t="n">
-        <v>2.978745305898244e-06</v>
+        <v>2.996606346210699e-06</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>4.358634811628452</v>
       </c>
       <c r="C140" t="n">
-        <v>3.04261312452474e-06</v>
+        <v>3.040125520360867e-06</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>4.366947583487043</v>
       </c>
       <c r="C141" t="n">
-        <v>2.702978876510875e-06</v>
+        <v>2.708356188323945e-06</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>4.371918106866407</v>
       </c>
       <c r="C142" t="n">
-        <v>2.70000996352317e-06</v>
+        <v>2.698716100485928e-06</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>4.375088957987725</v>
       </c>
       <c r="C143" t="n">
-        <v>4.77835151020088e-06</v>
+        <v>4.782979716287192e-06</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>4.377745617035317</v>
       </c>
       <c r="C144" t="n">
-        <v>6.221147027851955e-06</v>
+        <v>6.235904893247293e-06</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>4.379545289293363</v>
       </c>
       <c r="C145" t="n">
-        <v>6.004662098385282e-06</v>
+        <v>6.012468899181943e-06</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>4.380487974761863</v>
       </c>
       <c r="C146" t="n">
-        <v>6.063480810514259e-06</v>
+        <v>6.056451344299001e-06</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>4.380830769477681</v>
       </c>
       <c r="C147" t="n">
-        <v>5.919331855520919e-06</v>
+        <v>5.934231039110099e-06</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>4.381087865514544</v>
       </c>
       <c r="C148" t="n">
-        <v>5.957136906326911e-06</v>
+        <v>5.965557793086079e-06</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>4.382973236451544</v>
       </c>
       <c r="C149" t="n">
-        <v>9.925871291659554e-06</v>
+        <v>9.936864843228012e-06</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>4.384687210030635</v>
       </c>
       <c r="C150" t="n">
-        <v>1.0513083137866e-05</v>
+        <v>1.052732745928655e-05</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>4.386401183609727</v>
       </c>
       <c r="C151" t="n">
-        <v>9.838873336176836e-06</v>
+        <v>9.850759952994345e-06</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>4.388029458509863</v>
       </c>
       <c r="C152" t="n">
-        <v>9.448496009122648e-06</v>
+        <v>9.470395282307775e-06</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>4.389057842657317</v>
       </c>
       <c r="C153" t="n">
-        <v>9.446485050094617e-06</v>
+        <v>9.444059076239073e-06</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>4.389743432088954</v>
       </c>
       <c r="C154" t="n">
-        <v>8.920884827793874e-06</v>
+        <v>8.93702549156617e-06</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>4.392314392457591</v>
       </c>
       <c r="C155" t="n">
-        <v>8.349420201030009e-06</v>
+        <v>8.360689713777952e-06</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>4.396599326405318</v>
       </c>
       <c r="C156" t="n">
-        <v>6.780488015468549e-06</v>
+        <v>6.790179660763397e-06</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>4.400884260353045</v>
       </c>
       <c r="C157" t="n">
-        <v>4.775926819733411e-06</v>
+        <v>4.77430036383289e-06</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>4.404912098263909</v>
       </c>
       <c r="C158" t="n">
-        <v>2.6936503095394e-06</v>
+        <v>2.694654625100496e-06</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>4.406111879769273</v>
       </c>
       <c r="C159" t="n">
-        <v>2.836646012792459e-06</v>
+        <v>2.836237846033719e-06</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>4.4094541282485</v>
       </c>
       <c r="C160" t="n">
-        <v>1.537288233171082e-06</v>
+        <v>1.541890521099456e-06</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>4.413824760875183</v>
       </c>
       <c r="C161" t="n">
-        <v>1.370158549515124e-06</v>
+        <v>1.367580853774816e-06</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>4.41622432388591</v>
       </c>
       <c r="C162" t="n">
-        <v>1.431966816442253e-06</v>
+        <v>1.430582904469662e-06</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>4.418795284254546</v>
       </c>
       <c r="C163" t="n">
-        <v>1.415161651217292e-06</v>
+        <v>1.418703799702512e-06</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>4.421623340660047</v>
       </c>
       <c r="C164" t="n">
-        <v>1.45433638862508e-06</v>
+        <v>1.464153350011714e-06</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>4.423337314239138</v>
       </c>
       <c r="C165" t="n">
-        <v>1.507724899602927e-06</v>
+        <v>1.507094554481776e-06</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>4.424194301028683</v>
       </c>
       <c r="C166" t="n">
-        <v>1.517223809892138e-06</v>
+        <v>1.510694857355348e-06</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>4.429336221765956</v>
       </c>
       <c r="C167" t="n">
-        <v>1.596155873042338e-06</v>
+        <v>1.595292115227666e-06</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>4.431392990060865</v>
       </c>
       <c r="C168" t="n">
-        <v>1.675029498267849e-06</v>
+        <v>1.683416892947204e-06</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>4.440477050030048</v>
       </c>
       <c r="C169" t="n">
-        <v>1.633924404234414e-06</v>
+        <v>1.645359310917546e-06</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>4.457445388463049</v>
       </c>
       <c r="C170" t="n">
-        <v>1.838304147066649e-06</v>
+        <v>1.844072554990731e-06</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>4.474756521611869</v>
       </c>
       <c r="C171" t="n">
-        <v>2.313421519663177e-06</v>
+        <v>2.316269919258073e-06</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>4.491896257402779</v>
       </c>
       <c r="C172" t="n">
-        <v>3.225746644931989e-06</v>
+        <v>3.231782708790956e-06</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>4.500037631903461</v>
       </c>
       <c r="C173" t="n">
-        <v>4.597364185378571e-06</v>
+        <v>4.609417513470023e-06</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>4.503122784345824</v>
       </c>
       <c r="C174" t="n">
-        <v>4.947759496740608e-06</v>
+        <v>4.95760284749499e-06</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>4.509121691872643</v>
       </c>
       <c r="C175" t="n">
-        <v>6.819916693454332e-06</v>
+        <v>6.822192962190625e-06</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>4.517520162410189</v>
       </c>
       <c r="C176" t="n">
-        <v>8.799267236066895e-06</v>
+        <v>8.803972454666601e-06</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>4.521890795036872</v>
       </c>
       <c r="C177" t="n">
-        <v>9.139651996985888e-06</v>
+        <v>9.139380596364651e-06</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>4.526175728984599</v>
       </c>
       <c r="C178" t="n">
-        <v>9.685364114562474e-06</v>
+        <v>9.669433570914191e-06</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>4.530460662932327</v>
       </c>
       <c r="C179" t="n">
-        <v>1.104748006646043e-05</v>
+        <v>1.105914700396091e-05</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>4.534574199522145</v>
       </c>
       <c r="C180" t="n">
-        <v>1.482151967557438e-05</v>
+        <v>1.480298820101677e-05</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>4.539030530827781</v>
       </c>
       <c r="C181" t="n">
-        <v>1.747727844810736e-05</v>
+        <v>1.753049203162048e-05</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>4.543486862133419</v>
       </c>
       <c r="C182" t="n">
-        <v>2.22455079364995e-05</v>
+        <v>2.224308095800871e-05</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>4.545800726465191</v>
       </c>
       <c r="C183" t="n">
-        <v>2.552112291788052e-05</v>
+        <v>2.557534569207747e-05</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>4.549914263055009</v>
       </c>
       <c r="C184" t="n">
-        <v>2.460671277615368e-05</v>
+        <v>2.459763518582717e-05</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>4.551628236634101</v>
       </c>
       <c r="C185" t="n">
-        <v>2.415468885648379e-05</v>
+        <v>2.418308781245694e-05</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>4.553942100965873</v>
       </c>
       <c r="C186" t="n">
-        <v>2.356282768556807e-05</v>
+        <v>2.358469163295422e-05</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>4.558912624345237</v>
       </c>
       <c r="C187" t="n">
-        <v>1.850720776707524e-05</v>
+        <v>1.852841088447386e-05</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>4.562940462256101</v>
       </c>
       <c r="C188" t="n">
-        <v>1.370312859458243e-05</v>
+        <v>1.371443622586558e-05</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>4.56688260148801</v>
       </c>
       <c r="C189" t="n">
-        <v>9.601090085379774e-06</v>
+        <v>9.603378825243023e-06</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>4.571424631472602</v>
       </c>
       <c r="C190" t="n">
-        <v>6.468458609430232e-06</v>
+        <v>6.46597091477711e-06</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>4.575623866741375</v>
       </c>
       <c r="C191" t="n">
-        <v>4.477797891471624e-06</v>
+        <v>4.485176635411592e-06</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>4.580080198047011</v>
       </c>
       <c r="C192" t="n">
-        <v>3.360181340954588e-06</v>
+        <v>3.369375031880675e-06</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>4.58402233727892</v>
       </c>
       <c r="C193" t="n">
-        <v>3.006848149728346e-06</v>
+        <v>3.013151746434877e-06</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>4.588478668584557</v>
       </c>
       <c r="C194" t="n">
-        <v>2.72447781692603e-06</v>
+        <v>2.734750261801266e-06</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>4.588650065942466</v>
       </c>
       <c r="C195" t="n">
-        <v>2.712804752028555e-06</v>
+        <v>2.715315841499512e-06</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>4.592078013100648</v>
       </c>
       <c r="C196" t="n">
-        <v>2.405459375906614e-06</v>
+        <v>2.407365347764309e-06</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>4.593277794606012</v>
       </c>
       <c r="C197" t="n">
-        <v>2.356743454382065e-06</v>
+        <v>2.35996808184177e-06</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>4.593534890642876</v>
       </c>
       <c r="C198" t="n">
-        <v>2.327816044939534e-06</v>
+        <v>2.325780611326019e-06</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>4.596534344406285</v>
       </c>
       <c r="C199" t="n">
-        <v>2.442134550537563e-06</v>
+        <v>2.453914763951348e-06</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>4.597819824590603</v>
       </c>
       <c r="C200" t="n">
-        <v>2.27755080528542e-06</v>
+        <v>2.27246195522978e-06</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>4.601504867785649</v>
       </c>
       <c r="C201" t="n">
-        <v>2.939707579992245e-06</v>
+        <v>2.936217243492885e-06</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>4.603133142685785</v>
       </c>
       <c r="C202" t="n">
-        <v>2.839711174049535e-06</v>
+        <v>2.857170915457817e-06</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>4.604932814943831</v>
       </c>
       <c r="C203" t="n">
-        <v>2.803808513557799e-06</v>
+        <v>2.799868147552003e-06</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>4.606646788522922</v>
       </c>
       <c r="C204" t="n">
-        <v>2.782802445543207e-06</v>
+        <v>2.781291203335421e-06</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>4.608446460780968</v>
       </c>
       <c r="C205" t="n">
-        <v>2.742924098935632e-06</v>
+        <v>2.743340196389563e-06</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>4.610160434360059</v>
       </c>
       <c r="C206" t="n">
-        <v>2.752126487188208e-06</v>
+        <v>2.754816388910402e-06</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>4.611617311902286</v>
       </c>
       <c r="C207" t="n">
-        <v>2.733902603996202e-06</v>
+        <v>2.728610540369036e-06</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>4.615987944528968</v>
       </c>
       <c r="C208" t="n">
-        <v>2.399852793228486e-06</v>
+        <v>2.402787443963408e-06</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>4.620529974513559</v>
       </c>
       <c r="C209" t="n">
-        <v>2.011320983779335e-06</v>
+        <v>2.021788186494357e-06</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>4.622929537524286</v>
       </c>
       <c r="C210" t="n">
-        <v>1.90783096814301e-06</v>
+        <v>1.913448884632865e-06</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>4.623272332240105</v>
       </c>
       <c r="C211" t="n">
-        <v>1.983121475941757e-06</v>
+        <v>1.979804766569333e-06</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>4.623786524313832</v>
       </c>
       <c r="C212" t="n">
-        <v>1.901406465045581e-06</v>
+        <v>1.905783203830194e-06</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>4.625586196571877</v>
       </c>
       <c r="C213" t="n">
-        <v>1.865132348672902e-06</v>
+        <v>1.861776055328154e-06</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>4.628928445051105</v>
       </c>
       <c r="C214" t="n">
-        <v>1.836880123881345e-06</v>
+        <v>1.841896032229596e-06</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>4.631670802777651</v>
       </c>
       <c r="C215" t="n">
-        <v>1.846081301730147e-06</v>
+        <v>1.854050505768945e-06</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>4.64049776670997</v>
       </c>
       <c r="C216" t="n">
-        <v>1.922811108180909e-06</v>
+        <v>1.925084262442977e-06</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>4.649667525358106</v>
       </c>
       <c r="C217" t="n">
-        <v>1.886001862305015e-06</v>
+        <v>1.885614584818166e-06</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>4.658494489290425</v>
       </c>
       <c r="C218" t="n">
-        <v>1.782864356087287e-06</v>
+        <v>1.780982216706193e-06</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>4.667921343975426</v>
       </c>
       <c r="C219" t="n">
-        <v>1.839564327375792e-06</v>
+        <v>1.84231531331251e-06</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C220" t="n">
-        <v>1.92748342501336e-06</v>
+        <v>1.928116853590557e-06</v>
       </c>
     </row>
   </sheetData>
